--- a/CHL/CHL_platemap_OFRAPP.xlsx
+++ b/CHL/CHL_platemap_OFRAPP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/TO DO : ORGANIZE/CHL/Transplants_Platemaps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/GITHUB/TLPR21/CHL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE32F53-C85C-D84D-AC97-0910F2510532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE2E6DE-B844-4548-930A-032B05195F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11360" yWindow="500" windowWidth="14240" windowHeight="14240" xr2:uid="{EBBF6F8E-A352-C449-BF72-C503B922E56F}"/>
+    <workbookView xWindow="720" yWindow="500" windowWidth="20560" windowHeight="14240" xr2:uid="{EBBF6F8E-A352-C449-BF72-C503B922E56F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="137">
   <si>
     <t>A1</t>
   </si>
@@ -355,9 +355,6 @@
     <t>OFRA_PP_1GT37_P2</t>
   </si>
   <si>
-    <t>OFRA_PP_1GT42_P2</t>
-  </si>
-  <si>
     <t>OFRA_PP_2CX12_P1</t>
   </si>
   <si>
@@ -440,6 +437,15 @@
   </si>
   <si>
     <t>OFRA_PP_9GT30_P2</t>
+  </si>
+  <si>
+    <t>OFRA_PP_1GT42_P1</t>
+  </si>
+  <si>
+    <t>might be P2</t>
+  </si>
+  <si>
+    <t>But theres only one</t>
   </si>
 </sst>
 </file>
@@ -455,24 +461,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -487,9 +500,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -806,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B7DC77-4F53-384E-B067-72BD8D0D51CB}">
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77:B86"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -817,7 +834,7 @@
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -825,7 +842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -833,7 +850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -841,564 +858,571 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>114</v>
+      <c r="B32" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>114</v>
+      <c r="B33" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>115</v>
+      <c r="B34" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>115</v>
+      <c r="B35" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>116</v>
+      <c r="B36" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>116</v>
+      <c r="B37" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>117</v>
+      <c r="B38" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>117</v>
+      <c r="B39" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>118</v>
+      <c r="B40" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>118</v>
+      <c r="B41" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>119</v>
+      <c r="B42" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>119</v>
+      <c r="B43" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>120</v>
+      <c r="B44" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>120</v>
+      <c r="B45" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>121</v>
+      <c r="B46" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>121</v>
+      <c r="B47" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>122</v>
+      <c r="B48" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>122</v>
+      <c r="B49" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>123</v>
+      <c r="B50" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>123</v>
+      <c r="B51" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>124</v>
+      <c r="B52" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>124</v>
+      <c r="B53" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>125</v>
+      <c r="B54" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>125</v>
+      <c r="B55" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>126</v>
+      <c r="B56" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>126</v>
+      <c r="B57" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>127</v>
+      <c r="B58" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>127</v>
+      <c r="B59" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>128</v>
+      <c r="B60" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>128</v>
+      <c r="B61" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>129</v>
+      <c r="B62" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>129</v>
+      <c r="B63" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>130</v>
+      <c r="B64" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>130</v>
+      <c r="B65" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>131</v>
+      <c r="B66" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>131</v>
+      <c r="B67" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>132</v>
+      <c r="B68" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>132</v>
+      <c r="B69" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>133</v>
+      <c r="B70" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>72</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>133</v>
+      <c r="B71" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>134</v>
+      <c r="B72" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>134</v>
+      <c r="B73" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1594,7 +1618,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>